--- a/data/trans_orig/P57B1_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P57B1_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C036552D-FA1B-4764-AB91-A944A722C41F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{61152892-22CF-4099-BDCE-F06C6605EE3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8E854C52-34F4-4AEE-8CA4-780C7B2F27B8}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A61A90D6-C2CB-417A-825C-21AE44C7648D}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="263">
   <si>
     <t>Población según se ha sentido deprimido en 2023 (Tasa respuesta: 99,66%)</t>
   </si>
@@ -77,427 +77,430 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>1,91%</t>
+    <t>1,83%</t>
   </si>
   <si>
     <t>1,02%</t>
   </si>
   <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>Buena parte del tiempo</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>En algún momento</t>
+  </si>
+  <si>
+    <t>16,99%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>23,32%</t>
+  </si>
+  <si>
+    <t>33,32%</t>
+  </si>
+  <si>
+    <t>26,92%</t>
+  </si>
+  <si>
+    <t>40,6%</t>
+  </si>
+  <si>
+    <t>24,9%</t>
+  </si>
+  <si>
+    <t>20,64%</t>
+  </si>
+  <si>
+    <t>29,88%</t>
+  </si>
+  <si>
+    <t>En ningún momento o en casi ningún momento</t>
+  </si>
+  <si>
+    <t>81,24%</t>
+  </si>
+  <si>
+    <t>74,46%</t>
+  </si>
+  <si>
+    <t>87,5%</t>
+  </si>
+  <si>
+    <t>60,1%</t>
+  </si>
+  <si>
+    <t>52,14%</t>
+  </si>
+  <si>
+    <t>66,88%</t>
+  </si>
+  <si>
+    <t>70,99%</t>
+  </si>
+  <si>
+    <t>66,02%</t>
+  </si>
+  <si>
+    <t>75,58%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>28,62%</t>
+  </si>
+  <si>
+    <t>23,09%</t>
+  </si>
+  <si>
+    <t>34,14%</t>
+  </si>
+  <si>
+    <t>28,07%</t>
+  </si>
+  <si>
+    <t>23,52%</t>
+  </si>
+  <si>
+    <t>33,25%</t>
+  </si>
+  <si>
+    <t>28,33%</t>
+  </si>
+  <si>
+    <t>32,07%</t>
+  </si>
+  <si>
+    <t>66,91%</t>
+  </si>
+  <si>
+    <t>60,59%</t>
+  </si>
+  <si>
+    <t>72,02%</t>
+  </si>
+  <si>
+    <t>66,12%</t>
+  </si>
+  <si>
+    <t>61,22%</t>
+  </si>
+  <si>
+    <t>70,92%</t>
+  </si>
+  <si>
+    <t>66,48%</t>
+  </si>
+  <si>
+    <t>62,73%</t>
+  </si>
+  <si>
+    <t>70,09%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
     <t>4,91%</t>
   </si>
   <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>Buena parte del tiempo</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>En algún momento</t>
-  </si>
-  <si>
-    <t>16,99%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>23,85%</t>
-  </si>
-  <si>
-    <t>33,32%</t>
-  </si>
-  <si>
-    <t>26,61%</t>
-  </si>
-  <si>
-    <t>41,45%</t>
-  </si>
-  <si>
-    <t>24,9%</t>
-  </si>
-  <si>
-    <t>20,31%</t>
-  </si>
-  <si>
-    <t>30,39%</t>
-  </si>
-  <si>
-    <t>En ningún momento o en casi ningún momento</t>
-  </si>
-  <si>
-    <t>81,24%</t>
-  </si>
-  <si>
-    <t>74,38%</t>
-  </si>
-  <si>
-    <t>87,22%</t>
-  </si>
-  <si>
-    <t>60,1%</t>
-  </si>
-  <si>
-    <t>52,6%</t>
-  </si>
-  <si>
-    <t>67,42%</t>
-  </si>
-  <si>
-    <t>70,99%</t>
-  </si>
-  <si>
-    <t>65,68%</t>
-  </si>
-  <si>
-    <t>75,86%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>26,85%</t>
+  </si>
+  <si>
+    <t>30,85%</t>
+  </si>
+  <si>
+    <t>29,91%</t>
+  </si>
+  <si>
+    <t>26,76%</t>
+  </si>
+  <si>
+    <t>33,52%</t>
+  </si>
+  <si>
+    <t>28,42%</t>
+  </si>
+  <si>
+    <t>25,62%</t>
+  </si>
+  <si>
+    <t>30,96%</t>
+  </si>
+  <si>
+    <t>65,17%</t>
+  </si>
+  <si>
+    <t>60,75%</t>
+  </si>
+  <si>
+    <t>69,05%</t>
+  </si>
+  <si>
+    <t>62,69%</t>
+  </si>
+  <si>
+    <t>58,96%</t>
+  </si>
+  <si>
+    <t>66,27%</t>
+  </si>
+  <si>
+    <t>63,9%</t>
+  </si>
+  <si>
+    <t>61,14%</t>
+  </si>
+  <si>
+    <t>66,63%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
   </si>
   <si>
     <t>5,97%</t>
   </si>
   <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>28,62%</t>
-  </si>
-  <si>
-    <t>23,37%</t>
-  </si>
-  <si>
-    <t>34,72%</t>
-  </si>
-  <si>
-    <t>28,07%</t>
-  </si>
-  <si>
-    <t>23,81%</t>
-  </si>
-  <si>
-    <t>33,21%</t>
-  </si>
-  <si>
-    <t>28,33%</t>
-  </si>
-  <si>
-    <t>25,04%</t>
-  </si>
-  <si>
-    <t>31,74%</t>
-  </si>
-  <si>
-    <t>66,91%</t>
-  </si>
-  <si>
-    <t>60,5%</t>
-  </si>
-  <si>
-    <t>72,19%</t>
-  </si>
-  <si>
-    <t>66,12%</t>
-  </si>
-  <si>
-    <t>60,96%</t>
-  </si>
-  <si>
-    <t>70,86%</t>
-  </si>
-  <si>
-    <t>66,48%</t>
-  </si>
-  <si>
-    <t>62,55%</t>
-  </si>
-  <si>
-    <t>69,9%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>26,85%</t>
-  </si>
-  <si>
-    <t>23,05%</t>
-  </si>
-  <si>
-    <t>31,0%</t>
-  </si>
-  <si>
-    <t>29,91%</t>
-  </si>
-  <si>
-    <t>26,44%</t>
-  </si>
-  <si>
-    <t>33,24%</t>
-  </si>
-  <si>
-    <t>28,42%</t>
-  </si>
-  <si>
-    <t>25,94%</t>
-  </si>
-  <si>
-    <t>30,97%</t>
-  </si>
-  <si>
-    <t>65,17%</t>
-  </si>
-  <si>
-    <t>69,24%</t>
-  </si>
-  <si>
-    <t>62,69%</t>
-  </si>
-  <si>
-    <t>59,18%</t>
-  </si>
-  <si>
-    <t>66,14%</t>
-  </si>
-  <si>
-    <t>63,9%</t>
-  </si>
-  <si>
-    <t>61,31%</t>
-  </si>
-  <si>
-    <t>66,82%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
   </si>
   <si>
     <t>28,67%</t>
   </si>
   <si>
-    <t>22,37%</t>
-  </si>
-  <si>
-    <t>32,66%</t>
+    <t>21,88%</t>
+  </si>
+  <si>
+    <t>32,65%</t>
   </si>
   <si>
     <t>36,55%</t>
   </si>
   <si>
-    <t>33,08%</t>
-  </si>
-  <si>
-    <t>39,81%</t>
+    <t>33,38%</t>
+  </si>
+  <si>
+    <t>40,04%</t>
   </si>
   <si>
     <t>32,67%</t>
   </si>
   <si>
-    <t>29,04%</t>
-  </si>
-  <si>
-    <t>35,5%</t>
+    <t>29,09%</t>
+  </si>
+  <si>
+    <t>35,77%</t>
   </si>
   <si>
     <t>65,05%</t>
   </si>
   <si>
-    <t>60,57%</t>
-  </si>
-  <si>
-    <t>72,81%</t>
+    <t>60,67%</t>
+  </si>
+  <si>
+    <t>73,71%</t>
   </si>
   <si>
     <t>52,9%</t>
   </si>
   <si>
-    <t>49,45%</t>
-  </si>
-  <si>
-    <t>56,68%</t>
+    <t>49,64%</t>
+  </si>
+  <si>
+    <t>56,34%</t>
   </si>
   <si>
     <t>58,88%</t>
   </si>
   <si>
-    <t>55,95%</t>
-  </si>
-  <si>
-    <t>63,6%</t>
+    <t>55,74%</t>
+  </si>
+  <si>
+    <t>63,55%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -506,289 +509,292 @@
     <t>2,99%</t>
   </si>
   <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
   </si>
   <si>
     <t>4,82%</t>
   </si>
   <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
   </si>
   <si>
     <t>3,9%</t>
   </si>
   <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
   </si>
   <si>
     <t>9,7%</t>
   </si>
   <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>35,88%</t>
+  </si>
+  <si>
+    <t>31,97%</t>
+  </si>
+  <si>
+    <t>39,78%</t>
+  </si>
+  <si>
+    <t>38,41%</t>
+  </si>
+  <si>
+    <t>35,52%</t>
+  </si>
+  <si>
+    <t>41,69%</t>
+  </si>
+  <si>
+    <t>37,14%</t>
+  </si>
+  <si>
+    <t>34,75%</t>
+  </si>
+  <si>
+    <t>39,65%</t>
+  </si>
+  <si>
+    <t>51,43%</t>
+  </si>
+  <si>
+    <t>47,38%</t>
+  </si>
+  <si>
+    <t>55,49%</t>
+  </si>
+  <si>
+    <t>46,95%</t>
+  </si>
+  <si>
+    <t>43,53%</t>
+  </si>
+  <si>
+    <t>49,88%</t>
+  </si>
+  <si>
+    <t>49,19%</t>
+  </si>
+  <si>
+    <t>46,66%</t>
+  </si>
+  <si>
+    <t>51,6%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>14,23%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>37,54%</t>
+  </si>
+  <si>
+    <t>34,46%</t>
+  </si>
+  <si>
+    <t>40,57%</t>
+  </si>
+  <si>
+    <t>47,92%</t>
+  </si>
+  <si>
+    <t>40,69%</t>
+  </si>
+  <si>
+    <t>63,8%</t>
+  </si>
+  <si>
+    <t>43,71%</t>
+  </si>
+  <si>
+    <t>39,33%</t>
+  </si>
+  <si>
+    <t>56,73%</t>
+  </si>
+  <si>
+    <t>51,13%</t>
+  </si>
+  <si>
+    <t>47,88%</t>
+  </si>
+  <si>
+    <t>54,15%</t>
+  </si>
+  <si>
+    <t>35,96%</t>
+  </si>
+  <si>
+    <t>25,35%</t>
+  </si>
+  <si>
+    <t>41,24%</t>
+  </si>
+  <si>
+    <t>42,1%</t>
+  </si>
+  <si>
+    <t>32,82%</t>
+  </si>
+  <si>
+    <t>45,64%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
     <t>7,72%</t>
   </si>
   <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>35,88%</t>
-  </si>
-  <si>
-    <t>32,07%</t>
-  </si>
-  <si>
-    <t>39,56%</t>
-  </si>
-  <si>
-    <t>38,41%</t>
-  </si>
-  <si>
-    <t>35,66%</t>
-  </si>
-  <si>
-    <t>41,44%</t>
-  </si>
-  <si>
-    <t>37,14%</t>
-  </si>
-  <si>
-    <t>34,78%</t>
-  </si>
-  <si>
-    <t>39,6%</t>
-  </si>
-  <si>
-    <t>51,43%</t>
-  </si>
-  <si>
-    <t>47,55%</t>
-  </si>
-  <si>
-    <t>55,8%</t>
-  </si>
-  <si>
-    <t>46,95%</t>
-  </si>
-  <si>
-    <t>43,73%</t>
-  </si>
-  <si>
-    <t>50,3%</t>
-  </si>
-  <si>
-    <t>49,19%</t>
-  </si>
-  <si>
-    <t>46,6%</t>
-  </si>
-  <si>
-    <t>51,76%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>37,54%</t>
-  </si>
-  <si>
-    <t>34,57%</t>
-  </si>
-  <si>
-    <t>40,47%</t>
-  </si>
-  <si>
-    <t>47,92%</t>
-  </si>
-  <si>
-    <t>40,8%</t>
-  </si>
-  <si>
-    <t>64,48%</t>
-  </si>
-  <si>
-    <t>43,71%</t>
-  </si>
-  <si>
-    <t>39,13%</t>
-  </si>
-  <si>
-    <t>55,86%</t>
-  </si>
-  <si>
-    <t>51,13%</t>
-  </si>
-  <si>
-    <t>48,0%</t>
-  </si>
-  <si>
-    <t>54,32%</t>
-  </si>
-  <si>
-    <t>35,96%</t>
-  </si>
-  <si>
-    <t>24,23%</t>
-  </si>
-  <si>
-    <t>41,1%</t>
-  </si>
-  <si>
-    <t>42,1%</t>
-  </si>
-  <si>
-    <t>33,27%</t>
-  </si>
-  <si>
-    <t>45,75%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
     <t>30,16%</t>
   </si>
   <si>
-    <t>28,14%</t>
-  </si>
-  <si>
-    <t>32,04%</t>
+    <t>28,16%</t>
+  </si>
+  <si>
+    <t>31,96%</t>
   </si>
   <si>
     <t>37,46%</t>
   </si>
   <si>
-    <t>35,07%</t>
-  </si>
-  <si>
-    <t>45,42%</t>
+    <t>35,11%</t>
+  </si>
+  <si>
+    <t>45,87%</t>
   </si>
   <si>
     <t>34,03%</t>
   </si>
   <si>
-    <t>32,47%</t>
-  </si>
-  <si>
-    <t>37,88%</t>
+    <t>32,43%</t>
+  </si>
+  <si>
+    <t>37,86%</t>
   </si>
   <si>
     <t>61,84%</t>
@@ -797,25 +803,25 @@
     <t>59,86%</t>
   </si>
   <si>
-    <t>64,16%</t>
+    <t>64,28%</t>
   </si>
   <si>
     <t>51,32%</t>
   </si>
   <si>
-    <t>45,64%</t>
-  </si>
-  <si>
-    <t>53,58%</t>
+    <t>45,22%</t>
+  </si>
+  <si>
+    <t>53,41%</t>
   </si>
   <si>
     <t>56,27%</t>
   </si>
   <si>
-    <t>53,35%</t>
-  </si>
-  <si>
-    <t>57,83%</t>
+    <t>53,24%</t>
+  </si>
+  <si>
+    <t>57,87%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1230,7 +1236,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D71D50F-088E-4AAD-9B46-0156F47CC11A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB809C8D-CBA3-4CBE-AAE5-ED4759567C95}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1746,10 +1752,10 @@
         <v>73</v>
       </c>
       <c r="P11" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1764,13 +1770,13 @@
         <v>286622</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>78</v>
       </c>
       <c r="H12" s="7">
         <v>301</v>
@@ -1779,13 +1785,13 @@
         <v>329103</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="M12" s="7">
         <v>496</v>
@@ -1794,13 +1800,13 @@
         <v>615725</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1856,7 +1862,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -1868,13 +1874,13 @@
         <v>17022</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>88</v>
       </c>
       <c r="H14" s="7">
         <v>15</v>
@@ -1883,13 +1889,13 @@
         <v>9357</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="M14" s="7">
         <v>30</v>
@@ -1898,13 +1904,13 @@
         <v>26379</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1919,13 +1925,13 @@
         <v>27246</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>15</v>
+        <v>94</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H15" s="7">
         <v>49</v>
@@ -1934,13 +1940,13 @@
         <v>33753</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M15" s="7">
         <v>76</v>
@@ -1949,13 +1955,13 @@
         <v>60999</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1970,10 +1976,10 @@
         <v>148971</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>103</v>
+        <v>68</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>104</v>
@@ -2024,10 +2030,10 @@
         <v>111</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H17" s="7">
         <v>528</v>
@@ -2036,13 +2042,13 @@
         <v>365310</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="M17" s="7">
         <v>882</v>
@@ -2051,13 +2057,13 @@
         <v>726852</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2113,7 +2119,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2125,10 +2131,10 @@
         <v>15824</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>121</v>
+        <v>55</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>122</v>
@@ -2191,13 +2197,13 @@
         <v>58088</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="M20" s="7">
         <v>111</v>
@@ -2206,13 +2212,13 @@
         <v>87618</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>60</v>
+        <v>134</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>135</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>95</v>
+        <v>136</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2227,13 +2233,13 @@
         <v>207024</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H21" s="7">
         <v>408</v>
@@ -2242,13 +2248,13 @@
         <v>272397</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M21" s="7">
         <v>608</v>
@@ -2257,13 +2263,13 @@
         <v>479422</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2278,13 +2284,13 @@
         <v>469765</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H22" s="7">
         <v>616</v>
@@ -2293,13 +2299,13 @@
         <v>394256</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M22" s="7">
         <v>1036</v>
@@ -2308,13 +2314,13 @@
         <v>864021</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2370,7 +2376,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2382,13 +2388,13 @@
         <v>17840</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H24" s="7">
         <v>46</v>
@@ -2397,13 +2403,13 @@
         <v>28688</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="M24" s="7">
         <v>67</v>
@@ -2412,13 +2418,13 @@
         <v>46528</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2433,13 +2439,13 @@
         <v>57972</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H25" s="7">
         <v>92</v>
@@ -2448,13 +2454,13 @@
         <v>58520</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M25" s="7">
         <v>154</v>
@@ -2463,13 +2469,13 @@
         <v>116492</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2484,13 +2490,13 @@
         <v>214387</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="H26" s="7">
         <v>378</v>
@@ -2499,13 +2505,13 @@
         <v>228791</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M26" s="7">
         <v>616</v>
@@ -2514,13 +2520,13 @@
         <v>443179</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2535,13 +2541,13 @@
         <v>307305</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H27" s="7">
         <v>484</v>
@@ -2550,13 +2556,13 @@
         <v>279677</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M27" s="7">
         <v>824</v>
@@ -2565,13 +2571,13 @@
         <v>586982</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2627,7 +2633,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -2639,7 +2645,7 @@
         <v>18787</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>192</v>
+        <v>65</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>193</v>
@@ -2657,10 +2663,10 @@
         <v>129</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>65</v>
+        <v>195</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M29" s="7">
         <v>102</v>
@@ -2669,13 +2675,13 @@
         <v>60492</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2690,13 +2696,13 @@
         <v>60029</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H30" s="7">
         <v>224</v>
@@ -2705,13 +2711,13 @@
         <v>122814</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M30" s="7">
         <v>315</v>
@@ -2720,13 +2726,13 @@
         <v>182843</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2741,13 +2747,13 @@
         <v>261039</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="H31" s="7">
         <v>691</v>
@@ -2756,13 +2762,13 @@
         <v>488897</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M31" s="7">
         <v>1073</v>
@@ -2771,13 +2777,13 @@
         <v>749936</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2792,13 +2798,13 @@
         <v>355517</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H32" s="7">
         <v>708</v>
@@ -2807,13 +2813,13 @@
         <v>366833</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M32" s="7">
         <v>1232</v>
@@ -2822,13 +2828,13 @@
         <v>722350</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2896,13 +2902,13 @@
         <v>75259</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>87</v>
+        <v>228</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>227</v>
+        <v>195</v>
       </c>
       <c r="H34" s="7">
         <v>174</v>
@@ -2911,13 +2917,13 @@
         <v>110739</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M34" s="7">
         <v>258</v>
@@ -2926,13 +2932,13 @@
         <v>185998</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2947,13 +2953,13 @@
         <v>194831</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="H35" s="7">
         <v>476</v>
@@ -2962,13 +2968,13 @@
         <v>315068</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="M35" s="7">
         <v>699</v>
@@ -2977,13 +2983,13 @@
         <v>509899</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -2998,13 +3004,13 @@
         <v>1018225</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="H36" s="7">
         <v>1934</v>
@@ -3013,28 +3019,28 @@
         <v>1422328</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="M36" s="7">
         <v>3022</v>
       </c>
       <c r="N36" s="7">
-        <v>2440554</v>
+        <v>2440553</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3049,13 +3055,13 @@
         <v>2087559</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="H37" s="7">
         <v>2762</v>
@@ -3064,13 +3070,13 @@
         <v>1948495</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="M37" s="7">
         <v>4734</v>
@@ -3079,13 +3085,13 @@
         <v>4036054</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3127,7 +3133,7 @@
         <v>8713</v>
       </c>
       <c r="N38" s="7">
-        <v>7172505</v>
+        <v>7172504</v>
       </c>
       <c r="O38" s="7" t="s">
         <v>47</v>
@@ -3141,7 +3147,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P57B1_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P57B1_2023-Edad-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{61152892-22CF-4099-BDCE-F06C6605EE3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{34D32E4D-950D-416A-9C35-36056CF52A65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A61A90D6-C2CB-417A-825C-21AE44C7648D}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{3A1F0422-95C4-4BE5-8995-18E49AD60D71}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -1236,7 +1236,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB809C8D-CBA3-4CBE-AAE5-ED4759567C95}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35B7FCAC-0D91-4FFD-AB5A-DC52DAF928F5}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P57B1_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P57B1_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{34D32E4D-950D-416A-9C35-36056CF52A65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{06D81006-D924-48DB-824F-5BE4262567DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{3A1F0422-95C4-4BE5-8995-18E49AD60D71}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D538A94D-1964-427D-A353-953E7F76347C}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="261">
   <si>
     <t>Población según se ha sentido deprimido en 2023 (Tasa respuesta: 99,66%)</t>
   </si>
@@ -77,19 +77,19 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>1,83%</t>
+    <t>1,91%</t>
   </si>
   <si>
     <t>1,02%</t>
   </si>
   <si>
-    <t>5,16%</t>
+    <t>4,91%</t>
   </si>
   <si>
     <t>0,71%</t>
   </si>
   <si>
-    <t>2,84%</t>
+    <t>2,77%</t>
   </si>
   <si>
     <t>Buena parte del tiempo</t>
@@ -98,730 +98,724 @@
     <t>1,36%</t>
   </si>
   <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>En algún momento</t>
+  </si>
+  <si>
+    <t>16,99%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>23,85%</t>
+  </si>
+  <si>
+    <t>33,32%</t>
+  </si>
+  <si>
+    <t>26,61%</t>
+  </si>
+  <si>
+    <t>41,45%</t>
+  </si>
+  <si>
+    <t>24,9%</t>
+  </si>
+  <si>
+    <t>20,31%</t>
+  </si>
+  <si>
+    <t>30,39%</t>
+  </si>
+  <si>
+    <t>En ningún momento o en casi ningún momento</t>
+  </si>
+  <si>
+    <t>81,24%</t>
+  </si>
+  <si>
+    <t>74,38%</t>
+  </si>
+  <si>
+    <t>87,22%</t>
+  </si>
+  <si>
+    <t>60,1%</t>
+  </si>
+  <si>
+    <t>52,6%</t>
+  </si>
+  <si>
+    <t>67,42%</t>
+  </si>
+  <si>
+    <t>70,99%</t>
+  </si>
+  <si>
+    <t>65,68%</t>
+  </si>
+  <si>
+    <t>75,86%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>28,62%</t>
+  </si>
+  <si>
+    <t>23,37%</t>
+  </si>
+  <si>
+    <t>34,72%</t>
+  </si>
+  <si>
+    <t>28,07%</t>
+  </si>
+  <si>
+    <t>23,81%</t>
+  </si>
+  <si>
+    <t>33,21%</t>
+  </si>
+  <si>
+    <t>28,33%</t>
+  </si>
+  <si>
+    <t>25,04%</t>
+  </si>
+  <si>
+    <t>31,74%</t>
+  </si>
+  <si>
+    <t>66,91%</t>
+  </si>
+  <si>
+    <t>60,5%</t>
+  </si>
+  <si>
+    <t>72,19%</t>
+  </si>
+  <si>
+    <t>66,12%</t>
+  </si>
+  <si>
+    <t>60,96%</t>
+  </si>
+  <si>
+    <t>70,86%</t>
+  </si>
+  <si>
+    <t>66,48%</t>
+  </si>
+  <si>
+    <t>62,55%</t>
+  </si>
+  <si>
+    <t>69,9%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>26,85%</t>
+  </si>
+  <si>
+    <t>23,05%</t>
+  </si>
+  <si>
+    <t>31,0%</t>
+  </si>
+  <si>
+    <t>29,91%</t>
+  </si>
+  <si>
+    <t>26,44%</t>
+  </si>
+  <si>
+    <t>33,24%</t>
+  </si>
+  <si>
+    <t>28,42%</t>
+  </si>
+  <si>
+    <t>25,94%</t>
+  </si>
+  <si>
+    <t>30,97%</t>
+  </si>
+  <si>
+    <t>65,17%</t>
+  </si>
+  <si>
+    <t>69,24%</t>
+  </si>
+  <si>
+    <t>62,69%</t>
+  </si>
+  <si>
+    <t>59,18%</t>
+  </si>
+  <si>
+    <t>66,14%</t>
+  </si>
+  <si>
+    <t>63,9%</t>
+  </si>
+  <si>
+    <t>61,31%</t>
+  </si>
+  <si>
+    <t>66,82%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>28,67%</t>
+  </si>
+  <si>
+    <t>22,37%</t>
+  </si>
+  <si>
+    <t>32,66%</t>
+  </si>
+  <si>
+    <t>36,55%</t>
+  </si>
+  <si>
+    <t>33,08%</t>
+  </si>
+  <si>
+    <t>39,81%</t>
+  </si>
+  <si>
+    <t>32,67%</t>
+  </si>
+  <si>
+    <t>29,04%</t>
+  </si>
+  <si>
+    <t>35,5%</t>
+  </si>
+  <si>
+    <t>65,05%</t>
+  </si>
+  <si>
+    <t>60,57%</t>
+  </si>
+  <si>
+    <t>72,81%</t>
+  </si>
+  <si>
+    <t>52,9%</t>
+  </si>
+  <si>
+    <t>49,45%</t>
+  </si>
+  <si>
+    <t>56,68%</t>
+  </si>
+  <si>
+    <t>58,88%</t>
+  </si>
+  <si>
+    <t>55,95%</t>
+  </si>
+  <si>
+    <t>63,6%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
     <t>5,0%</t>
   </si>
   <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>En algún momento</t>
-  </si>
-  <si>
-    <t>16,99%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>23,32%</t>
-  </si>
-  <si>
-    <t>33,32%</t>
-  </si>
-  <si>
-    <t>26,92%</t>
-  </si>
-  <si>
-    <t>40,6%</t>
-  </si>
-  <si>
-    <t>24,9%</t>
-  </si>
-  <si>
-    <t>20,64%</t>
-  </si>
-  <si>
-    <t>29,88%</t>
-  </si>
-  <si>
-    <t>En ningún momento o en casi ningún momento</t>
-  </si>
-  <si>
-    <t>81,24%</t>
-  </si>
-  <si>
-    <t>74,46%</t>
-  </si>
-  <si>
-    <t>87,5%</t>
-  </si>
-  <si>
-    <t>60,1%</t>
-  </si>
-  <si>
-    <t>52,14%</t>
-  </si>
-  <si>
-    <t>66,88%</t>
-  </si>
-  <si>
-    <t>70,99%</t>
-  </si>
-  <si>
-    <t>66,02%</t>
-  </si>
-  <si>
-    <t>75,58%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>35,88%</t>
+  </si>
+  <si>
+    <t>32,07%</t>
+  </si>
+  <si>
+    <t>39,56%</t>
+  </si>
+  <si>
+    <t>38,41%</t>
+  </si>
+  <si>
+    <t>35,66%</t>
+  </si>
+  <si>
+    <t>41,44%</t>
+  </si>
+  <si>
+    <t>37,14%</t>
+  </si>
+  <si>
+    <t>34,78%</t>
+  </si>
+  <si>
+    <t>39,6%</t>
+  </si>
+  <si>
+    <t>51,43%</t>
+  </si>
+  <si>
+    <t>47,55%</t>
+  </si>
+  <si>
+    <t>55,8%</t>
+  </si>
+  <si>
+    <t>46,95%</t>
+  </si>
+  <si>
+    <t>43,73%</t>
+  </si>
+  <si>
+    <t>50,3%</t>
+  </si>
+  <si>
+    <t>49,19%</t>
+  </si>
+  <si>
+    <t>46,6%</t>
+  </si>
+  <si>
+    <t>51,76%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
   </si>
   <si>
     <t>2,7%</t>
   </si>
   <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>28,62%</t>
-  </si>
-  <si>
-    <t>23,09%</t>
-  </si>
-  <si>
-    <t>34,14%</t>
-  </si>
-  <si>
-    <t>28,07%</t>
-  </si>
-  <si>
-    <t>23,52%</t>
-  </si>
-  <si>
-    <t>33,25%</t>
-  </si>
-  <si>
-    <t>28,33%</t>
-  </si>
-  <si>
-    <t>32,07%</t>
-  </si>
-  <si>
-    <t>66,91%</t>
-  </si>
-  <si>
-    <t>60,59%</t>
-  </si>
-  <si>
-    <t>72,02%</t>
-  </si>
-  <si>
-    <t>66,12%</t>
-  </si>
-  <si>
-    <t>61,22%</t>
-  </si>
-  <si>
-    <t>70,92%</t>
-  </si>
-  <si>
-    <t>66,48%</t>
-  </si>
-  <si>
-    <t>62,73%</t>
-  </si>
-  <si>
-    <t>70,09%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>26,85%</t>
-  </si>
-  <si>
-    <t>30,85%</t>
-  </si>
-  <si>
-    <t>29,91%</t>
-  </si>
-  <si>
-    <t>26,76%</t>
-  </si>
-  <si>
-    <t>33,52%</t>
-  </si>
-  <si>
-    <t>28,42%</t>
-  </si>
-  <si>
-    <t>25,62%</t>
-  </si>
-  <si>
-    <t>30,96%</t>
-  </si>
-  <si>
-    <t>65,17%</t>
-  </si>
-  <si>
-    <t>60,75%</t>
-  </si>
-  <si>
-    <t>69,05%</t>
-  </si>
-  <si>
-    <t>62,69%</t>
-  </si>
-  <si>
-    <t>58,96%</t>
-  </si>
-  <si>
-    <t>66,27%</t>
-  </si>
-  <si>
-    <t>63,9%</t>
-  </si>
-  <si>
-    <t>61,14%</t>
-  </si>
-  <si>
-    <t>66,63%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>28,67%</t>
-  </si>
-  <si>
-    <t>21,88%</t>
-  </si>
-  <si>
-    <t>32,65%</t>
-  </si>
-  <si>
-    <t>36,55%</t>
-  </si>
-  <si>
-    <t>33,38%</t>
-  </si>
-  <si>
-    <t>40,04%</t>
-  </si>
-  <si>
-    <t>32,67%</t>
-  </si>
-  <si>
-    <t>29,09%</t>
-  </si>
-  <si>
-    <t>35,77%</t>
-  </si>
-  <si>
-    <t>65,05%</t>
-  </si>
-  <si>
-    <t>60,67%</t>
-  </si>
-  <si>
-    <t>73,71%</t>
-  </si>
-  <si>
-    <t>52,9%</t>
-  </si>
-  <si>
-    <t>49,64%</t>
-  </si>
-  <si>
-    <t>56,34%</t>
-  </si>
-  <si>
-    <t>58,88%</t>
-  </si>
-  <si>
-    <t>55,74%</t>
-  </si>
-  <si>
-    <t>63,55%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>35,88%</t>
-  </si>
-  <si>
-    <t>31,97%</t>
-  </si>
-  <si>
-    <t>39,78%</t>
-  </si>
-  <si>
-    <t>38,41%</t>
-  </si>
-  <si>
-    <t>35,52%</t>
-  </si>
-  <si>
-    <t>41,69%</t>
-  </si>
-  <si>
-    <t>37,14%</t>
-  </si>
-  <si>
-    <t>34,75%</t>
-  </si>
-  <si>
-    <t>39,65%</t>
-  </si>
-  <si>
-    <t>51,43%</t>
-  </si>
-  <si>
-    <t>47,38%</t>
-  </si>
-  <si>
-    <t>55,49%</t>
-  </si>
-  <si>
-    <t>46,95%</t>
-  </si>
-  <si>
-    <t>43,53%</t>
-  </si>
-  <si>
-    <t>49,88%</t>
-  </si>
-  <si>
-    <t>49,19%</t>
-  </si>
-  <si>
-    <t>46,66%</t>
-  </si>
-  <si>
-    <t>51,6%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
     <t>1,79%</t>
   </si>
   <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
   </si>
   <si>
     <t>3,53%</t>
   </si>
   <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
   </si>
   <si>
     <t>8,63%</t>
   </si>
   <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
   </si>
   <si>
     <t>12,04%</t>
   </si>
   <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>14,23%</t>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
   </si>
   <si>
     <t>10,66%</t>
   </si>
   <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
   </si>
   <si>
     <t>37,54%</t>
   </si>
   <si>
-    <t>34,46%</t>
-  </si>
-  <si>
-    <t>40,57%</t>
+    <t>34,57%</t>
+  </si>
+  <si>
+    <t>40,47%</t>
   </si>
   <si>
     <t>47,92%</t>
   </si>
   <si>
-    <t>40,69%</t>
-  </si>
-  <si>
-    <t>63,8%</t>
+    <t>40,8%</t>
+  </si>
+  <si>
+    <t>64,48%</t>
   </si>
   <si>
     <t>43,71%</t>
   </si>
   <si>
-    <t>39,33%</t>
-  </si>
-  <si>
-    <t>56,73%</t>
+    <t>39,13%</t>
+  </si>
+  <si>
+    <t>55,86%</t>
   </si>
   <si>
     <t>51,13%</t>
   </si>
   <si>
-    <t>47,88%</t>
-  </si>
-  <si>
-    <t>54,15%</t>
+    <t>48,0%</t>
+  </si>
+  <si>
+    <t>54,32%</t>
   </si>
   <si>
     <t>35,96%</t>
   </si>
   <si>
-    <t>25,35%</t>
-  </si>
-  <si>
-    <t>41,24%</t>
+    <t>24,23%</t>
+  </si>
+  <si>
+    <t>41,1%</t>
   </si>
   <si>
     <t>42,1%</t>
   </si>
   <si>
-    <t>32,82%</t>
+    <t>33,27%</t>
+  </si>
+  <si>
+    <t>45,75%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>30,16%</t>
+  </si>
+  <si>
+    <t>28,14%</t>
+  </si>
+  <si>
+    <t>32,04%</t>
+  </si>
+  <si>
+    <t>37,46%</t>
+  </si>
+  <si>
+    <t>35,07%</t>
+  </si>
+  <si>
+    <t>45,42%</t>
+  </si>
+  <si>
+    <t>34,03%</t>
+  </si>
+  <si>
+    <t>32,47%</t>
+  </si>
+  <si>
+    <t>37,88%</t>
+  </si>
+  <si>
+    <t>61,84%</t>
+  </si>
+  <si>
+    <t>59,86%</t>
+  </si>
+  <si>
+    <t>64,16%</t>
+  </si>
+  <si>
+    <t>51,32%</t>
   </si>
   <si>
     <t>45,64%</t>
   </si>
   <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>30,16%</t>
-  </si>
-  <si>
-    <t>28,16%</t>
-  </si>
-  <si>
-    <t>31,96%</t>
-  </si>
-  <si>
-    <t>37,46%</t>
-  </si>
-  <si>
-    <t>35,11%</t>
-  </si>
-  <si>
-    <t>45,87%</t>
-  </si>
-  <si>
-    <t>34,03%</t>
-  </si>
-  <si>
-    <t>32,43%</t>
-  </si>
-  <si>
-    <t>37,86%</t>
-  </si>
-  <si>
-    <t>61,84%</t>
-  </si>
-  <si>
-    <t>59,86%</t>
-  </si>
-  <si>
-    <t>64,28%</t>
-  </si>
-  <si>
-    <t>51,32%</t>
-  </si>
-  <si>
-    <t>45,22%</t>
-  </si>
-  <si>
-    <t>53,41%</t>
+    <t>53,58%</t>
   </si>
   <si>
     <t>56,27%</t>
   </si>
   <si>
-    <t>53,24%</t>
-  </si>
-  <si>
-    <t>57,87%</t>
+    <t>53,35%</t>
+  </si>
+  <si>
+    <t>57,83%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1236,7 +1230,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35B7FCAC-0D91-4FFD-AB5A-DC52DAF928F5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9012279B-A5AD-456B-8CDC-A12F2E87FF4D}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1752,10 +1746,10 @@
         <v>73</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1770,13 +1764,13 @@
         <v>286622</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H12" s="7">
         <v>301</v>
@@ -1785,13 +1779,13 @@
         <v>329103</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M12" s="7">
         <v>496</v>
@@ -1800,13 +1794,13 @@
         <v>615725</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1862,7 +1856,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -1874,13 +1868,13 @@
         <v>17022</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H14" s="7">
         <v>15</v>
@@ -1889,13 +1883,13 @@
         <v>9357</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M14" s="7">
         <v>30</v>
@@ -1904,13 +1898,13 @@
         <v>26379</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>93</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1925,13 +1919,13 @@
         <v>27246</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="G15" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>96</v>
       </c>
       <c r="H15" s="7">
         <v>49</v>
@@ -1940,13 +1934,13 @@
         <v>33753</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="K15" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="L15" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="M15" s="7">
         <v>76</v>
@@ -1955,13 +1949,13 @@
         <v>60999</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="P15" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="P15" s="7" t="s">
+      <c r="Q15" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1976,10 +1970,10 @@
         <v>148971</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>68</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>104</v>
@@ -2030,10 +2024,10 @@
         <v>111</v>
       </c>
       <c r="F17" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="H17" s="7">
         <v>528</v>
@@ -2042,13 +2036,13 @@
         <v>365310</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="M17" s="7">
         <v>882</v>
@@ -2057,13 +2051,13 @@
         <v>726852</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2119,7 +2113,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2131,10 +2125,10 @@
         <v>15824</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>55</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>122</v>
@@ -2197,13 +2191,13 @@
         <v>58088</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>99</v>
+        <v>132</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M20" s="7">
         <v>111</v>
@@ -2212,13 +2206,13 @@
         <v>87618</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>134</v>
+        <v>60</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>135</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>136</v>
+        <v>95</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2233,13 +2227,13 @@
         <v>207024</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="H21" s="7">
         <v>408</v>
@@ -2248,13 +2242,13 @@
         <v>272397</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>142</v>
       </c>
       <c r="M21" s="7">
         <v>608</v>
@@ -2263,13 +2257,13 @@
         <v>479422</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2284,13 +2278,13 @@
         <v>469765</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="H22" s="7">
         <v>616</v>
@@ -2299,13 +2293,13 @@
         <v>394256</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="M22" s="7">
         <v>1036</v>
@@ -2314,13 +2308,13 @@
         <v>864021</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2376,7 +2370,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2388,13 +2382,13 @@
         <v>17840</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>158</v>
       </c>
       <c r="H24" s="7">
         <v>46</v>
@@ -2403,13 +2397,13 @@
         <v>28688</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>161</v>
       </c>
       <c r="M24" s="7">
         <v>67</v>
@@ -2418,13 +2412,13 @@
         <v>46528</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2439,13 +2433,13 @@
         <v>57972</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="H25" s="7">
         <v>92</v>
@@ -2454,13 +2448,13 @@
         <v>58520</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>170</v>
       </c>
       <c r="M25" s="7">
         <v>154</v>
@@ -2469,13 +2463,13 @@
         <v>116492</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2490,13 +2484,13 @@
         <v>214387</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="H26" s="7">
         <v>378</v>
@@ -2505,13 +2499,13 @@
         <v>228791</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>179</v>
       </c>
       <c r="M26" s="7">
         <v>616</v>
@@ -2520,13 +2514,13 @@
         <v>443179</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2541,13 +2535,13 @@
         <v>307305</v>
       </c>
       <c r="E27" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="F27" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="G27" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="H27" s="7">
         <v>484</v>
@@ -2556,13 +2550,13 @@
         <v>279677</v>
       </c>
       <c r="J27" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="K27" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="K27" s="7" t="s">
+      <c r="L27" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>188</v>
       </c>
       <c r="M27" s="7">
         <v>824</v>
@@ -2571,13 +2565,13 @@
         <v>586982</v>
       </c>
       <c r="O27" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="P27" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="P27" s="7" t="s">
+      <c r="Q27" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2633,7 +2627,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -2645,7 +2639,7 @@
         <v>18787</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>65</v>
+        <v>192</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>193</v>
@@ -2663,10 +2657,10 @@
         <v>129</v>
       </c>
       <c r="K29" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>196</v>
       </c>
       <c r="M29" s="7">
         <v>102</v>
@@ -2675,13 +2669,13 @@
         <v>60492</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2696,13 +2690,13 @@
         <v>60029</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>202</v>
       </c>
       <c r="H30" s="7">
         <v>224</v>
@@ -2711,13 +2705,13 @@
         <v>122814</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>205</v>
       </c>
       <c r="M30" s="7">
         <v>315</v>
@@ -2726,13 +2720,13 @@
         <v>182843</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2747,13 +2741,13 @@
         <v>261039</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="F31" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="G31" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>211</v>
       </c>
       <c r="H31" s="7">
         <v>691</v>
@@ -2762,13 +2756,13 @@
         <v>488897</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="K31" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="K31" s="7" t="s">
+      <c r="L31" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>214</v>
       </c>
       <c r="M31" s="7">
         <v>1073</v>
@@ -2777,13 +2771,13 @@
         <v>749936</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="P31" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="P31" s="7" t="s">
+      <c r="Q31" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2798,13 +2792,13 @@
         <v>355517</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="F32" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="G32" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>220</v>
       </c>
       <c r="H32" s="7">
         <v>708</v>
@@ -2813,13 +2807,13 @@
         <v>366833</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="K32" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="K32" s="7" t="s">
+      <c r="L32" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>223</v>
       </c>
       <c r="M32" s="7">
         <v>1232</v>
@@ -2828,13 +2822,13 @@
         <v>722350</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="P32" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="P32" s="7" t="s">
+      <c r="Q32" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2902,13 +2896,13 @@
         <v>75259</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G34" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>195</v>
       </c>
       <c r="H34" s="7">
         <v>174</v>
@@ -2917,13 +2911,13 @@
         <v>110739</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="K34" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="K34" s="7" t="s">
+      <c r="L34" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>231</v>
       </c>
       <c r="M34" s="7">
         <v>258</v>
@@ -2932,13 +2926,13 @@
         <v>185998</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q34" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2953,13 +2947,13 @@
         <v>194831</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="G35" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>237</v>
       </c>
       <c r="H35" s="7">
         <v>476</v>
@@ -2968,13 +2962,13 @@
         <v>315068</v>
       </c>
       <c r="J35" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="L35" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="K35" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>240</v>
       </c>
       <c r="M35" s="7">
         <v>699</v>
@@ -2983,13 +2977,13 @@
         <v>509899</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="Q35" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="P35" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3004,13 +2998,13 @@
         <v>1018225</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="G36" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>246</v>
       </c>
       <c r="H36" s="7">
         <v>1934</v>
@@ -3019,28 +3013,28 @@
         <v>1422328</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="L36" s="7" t="s">
         <v>247</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>249</v>
       </c>
       <c r="M36" s="7">
         <v>3022</v>
       </c>
       <c r="N36" s="7">
-        <v>2440553</v>
+        <v>2440554</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="P36" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="Q36" s="7" t="s">
         <v>250</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3055,13 +3049,13 @@
         <v>2087559</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="G37" s="7" t="s">
         <v>253</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>255</v>
       </c>
       <c r="H37" s="7">
         <v>2762</v>
@@ -3070,13 +3064,13 @@
         <v>1948495</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="L37" s="7" t="s">
         <v>256</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>258</v>
       </c>
       <c r="M37" s="7">
         <v>4734</v>
@@ -3085,13 +3079,13 @@
         <v>4036054</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="P37" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="Q37" s="7" t="s">
         <v>259</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3133,7 +3127,7 @@
         <v>8713</v>
       </c>
       <c r="N38" s="7">
-        <v>7172504</v>
+        <v>7172505</v>
       </c>
       <c r="O38" s="7" t="s">
         <v>47</v>
@@ -3147,7 +3141,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P57B1_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P57B1_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{06D81006-D924-48DB-824F-5BE4262567DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7731E3CB-51E4-4A19-A2B5-C526E3C97587}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D538A94D-1964-427D-A353-953E7F76347C}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{74E2F815-91BB-4323-934D-10D6EC6725F5}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="296">
   <si>
     <t>Población según se ha sentido deprimido en 2023 (Tasa respuesta: 99,66%)</t>
   </si>
@@ -65,757 +65,862 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Todo o casi todo el tiempo</t>
   </si>
   <si>
-    <t>0,41%</t>
+    <t>0,34%</t>
   </si>
   <si>
     <t>0,0%</t>
   </si>
   <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>Buena parte del tiempo</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>En algún momento</t>
+  </si>
+  <si>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>21,97%</t>
+  </si>
+  <si>
+    <t>32,81%</t>
+  </si>
+  <si>
+    <t>25,94%</t>
+  </si>
+  <si>
+    <t>40,76%</t>
+  </si>
+  <si>
+    <t>23,08%</t>
+  </si>
+  <si>
+    <t>18,69%</t>
+  </si>
+  <si>
+    <t>28,44%</t>
+  </si>
+  <si>
+    <t>En ningún momento o en casi ningún momento</t>
+  </si>
+  <si>
+    <t>83,01%</t>
+  </si>
+  <si>
+    <t>76,3%</t>
+  </si>
+  <si>
+    <t>88,54%</t>
+  </si>
+  <si>
+    <t>60,96%</t>
+  </si>
+  <si>
+    <t>53,6%</t>
+  </si>
+  <si>
+    <t>68,4%</t>
+  </si>
+  <si>
+    <t>73,33%</t>
+  </si>
+  <si>
+    <t>68,03%</t>
+  </si>
+  <si>
+    <t>78,12%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25-34</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>27,44%</t>
+  </si>
+  <si>
+    <t>22,29%</t>
+  </si>
+  <si>
+    <t>33,5%</t>
+  </si>
+  <si>
+    <t>24,09%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>29,52%</t>
+  </si>
+  <si>
+    <t>25,61%</t>
+  </si>
+  <si>
+    <t>20,63%</t>
+  </si>
+  <si>
+    <t>29,87%</t>
+  </si>
+  <si>
+    <t>68,35%</t>
+  </si>
+  <si>
+    <t>61,82%</t>
+  </si>
+  <si>
+    <t>73,54%</t>
+  </si>
+  <si>
+    <t>71,05%</t>
+  </si>
+  <si>
+    <t>64,91%</t>
+  </si>
+  <si>
+    <t>81,79%</t>
+  </si>
+  <si>
+    <t>69,83%</t>
+  </si>
+  <si>
+    <t>65,04%</t>
+  </si>
+  <si>
+    <t>75,59%</t>
+  </si>
+  <si>
+    <t>35-44</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>25,65%</t>
+  </si>
+  <si>
+    <t>21,85%</t>
+  </si>
+  <si>
+    <t>29,5%</t>
+  </si>
+  <si>
+    <t>29,13%</t>
+  </si>
+  <si>
+    <t>25,76%</t>
+  </si>
+  <si>
+    <t>32,33%</t>
+  </si>
+  <si>
+    <t>27,4%</t>
+  </si>
+  <si>
+    <t>25,0%</t>
+  </si>
+  <si>
+    <t>29,93%</t>
+  </si>
+  <si>
+    <t>66,66%</t>
+  </si>
+  <si>
+    <t>62,4%</t>
+  </si>
+  <si>
+    <t>70,64%</t>
+  </si>
+  <si>
+    <t>63,69%</t>
+  </si>
+  <si>
+    <t>60,26%</t>
+  </si>
+  <si>
+    <t>67,12%</t>
+  </si>
+  <si>
+    <t>65,16%</t>
+  </si>
+  <si>
+    <t>62,61%</t>
+  </si>
+  <si>
+    <t>68,05%</t>
+  </si>
+  <si>
+    <t>45-54</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
   </si>
   <si>
     <t>4,91%</t>
   </si>
   <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>Buena parte del tiempo</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>En algún momento</t>
-  </si>
-  <si>
-    <t>16,99%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>23,85%</t>
-  </si>
-  <si>
-    <t>33,32%</t>
-  </si>
-  <si>
-    <t>26,61%</t>
-  </si>
-  <si>
-    <t>41,45%</t>
-  </si>
-  <si>
-    <t>24,9%</t>
-  </si>
-  <si>
-    <t>20,31%</t>
-  </si>
-  <si>
-    <t>30,39%</t>
-  </si>
-  <si>
-    <t>En ningún momento o en casi ningún momento</t>
-  </si>
-  <si>
-    <t>81,24%</t>
-  </si>
-  <si>
-    <t>74,38%</t>
-  </si>
-  <si>
-    <t>87,22%</t>
-  </si>
-  <si>
-    <t>60,1%</t>
-  </si>
-  <si>
-    <t>52,6%</t>
-  </si>
-  <si>
-    <t>67,42%</t>
-  </si>
-  <si>
-    <t>70,99%</t>
-  </si>
-  <si>
-    <t>65,68%</t>
-  </si>
-  <si>
-    <t>75,86%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>21,65%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>30,96%</t>
+  </si>
+  <si>
+    <t>34,58%</t>
+  </si>
+  <si>
+    <t>28,96%</t>
+  </si>
+  <si>
+    <t>37,79%</t>
+  </si>
+  <si>
+    <t>27,41%</t>
+  </si>
+  <si>
+    <t>16,11%</t>
+  </si>
+  <si>
+    <t>33,28%</t>
+  </si>
+  <si>
+    <t>73,64%</t>
+  </si>
+  <si>
+    <t>62,55%</t>
+  </si>
+  <si>
+    <t>87,91%</t>
+  </si>
+  <si>
+    <t>55,48%</t>
+  </si>
+  <si>
+    <t>51,92%</t>
+  </si>
+  <si>
+    <t>63,27%</t>
+  </si>
+  <si>
+    <t>65,55%</t>
+  </si>
+  <si>
+    <t>58,24%</t>
+  </si>
+  <si>
+    <t>79,68%</t>
+  </si>
+  <si>
+    <t>55-64</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>35,47%</t>
+  </si>
+  <si>
+    <t>31,72%</t>
+  </si>
+  <si>
+    <t>39,23%</t>
+  </si>
+  <si>
+    <t>38,03%</t>
+  </si>
+  <si>
+    <t>35,35%</t>
+  </si>
+  <si>
+    <t>40,99%</t>
+  </si>
+  <si>
+    <t>36,74%</t>
+  </si>
+  <si>
+    <t>34,39%</t>
+  </si>
+  <si>
+    <t>39,19%</t>
+  </si>
+  <si>
+    <t>52,4%</t>
+  </si>
+  <si>
+    <t>48,51%</t>
+  </si>
+  <si>
+    <t>56,69%</t>
+  </si>
+  <si>
+    <t>47,73%</t>
+  </si>
+  <si>
+    <t>44,44%</t>
+  </si>
+  <si>
+    <t>50,97%</t>
+  </si>
+  <si>
+    <t>50,09%</t>
+  </si>
+  <si>
+    <t>47,5%</t>
+  </si>
+  <si>
+    <t>52,58%</t>
+  </si>
+  <si>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>35,54%</t>
+  </si>
+  <si>
+    <t>31,52%</t>
+  </si>
+  <si>
+    <t>39,55%</t>
+  </si>
+  <si>
+    <t>58,41%</t>
+  </si>
+  <si>
+    <t>36,22%</t>
+  </si>
+  <si>
+    <t>84,37%</t>
+  </si>
+  <si>
+    <t>49,79%</t>
+  </si>
+  <si>
+    <t>35,66%</t>
+  </si>
+  <si>
+    <t>74,12%</t>
+  </si>
+  <si>
+    <t>55,9%</t>
+  </si>
+  <si>
+    <t>51,51%</t>
+  </si>
+  <si>
+    <t>60,03%</t>
+  </si>
+  <si>
+    <t>31,78%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>48,85%</t>
+  </si>
+  <si>
+    <t>40,87%</t>
+  </si>
+  <si>
+    <t>20,84%</t>
+  </si>
+  <si>
+    <t>52,57%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>38,22%</t>
+  </si>
+  <si>
+    <t>33,74%</t>
+  </si>
+  <si>
+    <t>42,73%</t>
+  </si>
+  <si>
+    <t>44,51%</t>
+  </si>
+  <si>
+    <t>41,05%</t>
+  </si>
+  <si>
+    <t>47,84%</t>
+  </si>
+  <si>
+    <t>41,99%</t>
+  </si>
+  <si>
+    <t>39,26%</t>
+  </si>
+  <si>
+    <t>44,7%</t>
+  </si>
+  <si>
+    <t>47,53%</t>
+  </si>
+  <si>
+    <t>42,91%</t>
+  </si>
+  <si>
+    <t>52,23%</t>
+  </si>
+  <si>
+    <t>35,08%</t>
+  </si>
+  <si>
+    <t>32,1%</t>
+  </si>
+  <si>
+    <t>38,52%</t>
+  </si>
+  <si>
+    <t>40,06%</t>
+  </si>
+  <si>
+    <t>37,34%</t>
+  </si>
+  <si>
+    <t>42,82%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
   </si>
   <si>
     <t>2,71%</t>
   </si>
   <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>28,62%</t>
-  </si>
-  <si>
-    <t>23,37%</t>
-  </si>
-  <si>
-    <t>34,72%</t>
-  </si>
-  <si>
-    <t>28,07%</t>
-  </si>
-  <si>
-    <t>23,81%</t>
-  </si>
-  <si>
-    <t>33,21%</t>
-  </si>
-  <si>
-    <t>28,33%</t>
-  </si>
-  <si>
-    <t>25,04%</t>
-  </si>
-  <si>
-    <t>31,74%</t>
-  </si>
-  <si>
-    <t>66,91%</t>
-  </si>
-  <si>
-    <t>60,5%</t>
-  </si>
-  <si>
-    <t>72,19%</t>
-  </si>
-  <si>
-    <t>66,12%</t>
-  </si>
-  <si>
-    <t>60,96%</t>
-  </si>
-  <si>
-    <t>70,86%</t>
-  </si>
-  <si>
-    <t>66,48%</t>
-  </si>
-  <si>
-    <t>62,55%</t>
-  </si>
-  <si>
-    <t>69,9%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>26,85%</t>
-  </si>
-  <si>
-    <t>23,05%</t>
-  </si>
-  <si>
-    <t>31,0%</t>
-  </si>
-  <si>
-    <t>29,91%</t>
-  </si>
-  <si>
-    <t>26,44%</t>
-  </si>
-  <si>
-    <t>33,24%</t>
-  </si>
-  <si>
-    <t>28,42%</t>
-  </si>
-  <si>
-    <t>25,94%</t>
-  </si>
-  <si>
-    <t>30,97%</t>
-  </si>
-  <si>
-    <t>65,17%</t>
-  </si>
-  <si>
-    <t>69,24%</t>
-  </si>
-  <si>
-    <t>62,69%</t>
-  </si>
-  <si>
-    <t>59,18%</t>
-  </si>
-  <si>
-    <t>66,14%</t>
-  </si>
-  <si>
-    <t>63,9%</t>
-  </si>
-  <si>
-    <t>61,31%</t>
-  </si>
-  <si>
-    <t>66,82%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>28,67%</t>
-  </si>
-  <si>
-    <t>22,37%</t>
-  </si>
-  <si>
-    <t>32,66%</t>
-  </si>
-  <si>
-    <t>36,55%</t>
-  </si>
-  <si>
-    <t>33,08%</t>
-  </si>
-  <si>
-    <t>39,81%</t>
-  </si>
-  <si>
-    <t>32,67%</t>
-  </si>
-  <si>
-    <t>29,04%</t>
-  </si>
-  <si>
-    <t>35,5%</t>
-  </si>
-  <si>
-    <t>65,05%</t>
-  </si>
-  <si>
-    <t>60,57%</t>
-  </si>
-  <si>
-    <t>72,81%</t>
-  </si>
-  <si>
-    <t>52,9%</t>
-  </si>
-  <si>
-    <t>49,45%</t>
-  </si>
-  <si>
-    <t>56,68%</t>
-  </si>
-  <si>
-    <t>58,88%</t>
-  </si>
-  <si>
-    <t>55,95%</t>
-  </si>
-  <si>
-    <t>63,6%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>35,88%</t>
-  </si>
-  <si>
-    <t>32,07%</t>
-  </si>
-  <si>
-    <t>39,56%</t>
-  </si>
-  <si>
-    <t>38,41%</t>
-  </si>
-  <si>
-    <t>35,66%</t>
-  </si>
-  <si>
-    <t>41,44%</t>
-  </si>
-  <si>
-    <t>37,14%</t>
-  </si>
-  <si>
-    <t>34,78%</t>
-  </si>
-  <si>
-    <t>39,6%</t>
-  </si>
-  <si>
-    <t>51,43%</t>
-  </si>
-  <si>
-    <t>47,55%</t>
-  </si>
-  <si>
-    <t>55,8%</t>
-  </si>
-  <si>
-    <t>46,95%</t>
-  </si>
-  <si>
-    <t>43,73%</t>
-  </si>
-  <si>
-    <t>50,3%</t>
-  </si>
-  <si>
-    <t>49,19%</t>
-  </si>
-  <si>
-    <t>46,6%</t>
-  </si>
-  <si>
-    <t>51,76%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>37,54%</t>
-  </si>
-  <si>
-    <t>34,57%</t>
-  </si>
-  <si>
-    <t>40,47%</t>
-  </si>
-  <si>
-    <t>47,92%</t>
-  </si>
-  <si>
-    <t>40,8%</t>
-  </si>
-  <si>
-    <t>64,48%</t>
-  </si>
-  <si>
-    <t>43,71%</t>
-  </si>
-  <si>
-    <t>39,13%</t>
-  </si>
-  <si>
-    <t>55,86%</t>
-  </si>
-  <si>
-    <t>51,13%</t>
-  </si>
-  <si>
-    <t>48,0%</t>
-  </si>
-  <si>
-    <t>54,32%</t>
-  </si>
-  <si>
-    <t>35,96%</t>
-  </si>
-  <si>
-    <t>24,23%</t>
-  </si>
-  <si>
-    <t>41,1%</t>
-  </si>
-  <si>
-    <t>42,1%</t>
-  </si>
-  <si>
-    <t>33,27%</t>
-  </si>
-  <si>
-    <t>45,75%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>30,16%</t>
-  </si>
-  <si>
-    <t>28,14%</t>
-  </si>
-  <si>
-    <t>32,04%</t>
-  </si>
-  <si>
-    <t>37,46%</t>
-  </si>
-  <si>
-    <t>35,07%</t>
-  </si>
-  <si>
-    <t>45,42%</t>
-  </si>
-  <si>
-    <t>34,03%</t>
-  </si>
-  <si>
-    <t>32,47%</t>
-  </si>
-  <si>
-    <t>37,88%</t>
-  </si>
-  <si>
-    <t>61,84%</t>
-  </si>
-  <si>
-    <t>59,86%</t>
-  </si>
-  <si>
-    <t>64,16%</t>
-  </si>
-  <si>
-    <t>51,32%</t>
-  </si>
-  <si>
-    <t>45,64%</t>
-  </si>
-  <si>
-    <t>53,58%</t>
-  </si>
-  <si>
-    <t>56,27%</t>
-  </si>
-  <si>
-    <t>53,35%</t>
-  </si>
-  <si>
-    <t>57,83%</t>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>27,33%</t>
+  </si>
+  <si>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>30,0%</t>
+  </si>
+  <si>
+    <t>37,78%</t>
+  </si>
+  <si>
+    <t>33,37%</t>
+  </si>
+  <si>
+    <t>50,93%</t>
+  </si>
+  <si>
+    <t>32,7%</t>
+  </si>
+  <si>
+    <t>29,4%</t>
+  </si>
+  <si>
+    <t>38,6%</t>
+  </si>
+  <si>
+    <t>65,54%</t>
+  </si>
+  <si>
+    <t>62,25%</t>
+  </si>
+  <si>
+    <t>73,67%</t>
+  </si>
+  <si>
+    <t>51,89%</t>
+  </si>
+  <si>
+    <t>41,29%</t>
+  </si>
+  <si>
+    <t>55,81%</t>
+  </si>
+  <si>
+    <t>58,52%</t>
+  </si>
+  <si>
+    <t>53,73%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1230,8 +1335,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9012279B-A5AD-456B-8CDC-A12F2E87FF4D}">
-  <dimension ref="A1:Q39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FDAEE9C-18A2-4014-9690-642C5457DA3B}">
+  <dimension ref="A1:Q44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1351,7 +1456,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>1554</v>
+        <v>1354</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1366,7 +1471,7 @@
         <v>1</v>
       </c>
       <c r="I4" s="7">
-        <v>3618</v>
+        <v>3220</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1381,7 +1486,7 @@
         <v>2</v>
       </c>
       <c r="N4" s="7">
-        <v>5171</v>
+        <v>4574</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>16</v>
@@ -1402,7 +1507,7 @@
         <v>2</v>
       </c>
       <c r="D5" s="7">
-        <v>5134</v>
+        <v>4813</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>19</v>
@@ -1417,7 +1522,7 @@
         <v>10</v>
       </c>
       <c r="I5" s="7">
-        <v>19765</v>
+        <v>16279</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>21</v>
@@ -1432,7 +1537,7 @@
         <v>12</v>
       </c>
       <c r="N5" s="7">
-        <v>24900</v>
+        <v>21092</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>24</v>
@@ -1453,7 +1558,7 @@
         <v>30</v>
       </c>
       <c r="D6" s="7">
-        <v>64183</v>
+        <v>61804</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>28</v>
@@ -1468,7 +1573,7 @@
         <v>71</v>
       </c>
       <c r="I6" s="7">
-        <v>118259</v>
+        <v>102770</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>31</v>
@@ -1483,7 +1588,7 @@
         <v>101</v>
       </c>
       <c r="N6" s="7">
-        <v>182441</v>
+        <v>164574</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>34</v>
@@ -1504,7 +1609,7 @@
         <v>139</v>
       </c>
       <c r="D7" s="7">
-        <v>306808</v>
+        <v>332016</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>38</v>
@@ -1519,7 +1624,7 @@
         <v>125</v>
       </c>
       <c r="I7" s="7">
-        <v>213315</v>
+        <v>190931</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>41</v>
@@ -1534,7 +1639,7 @@
         <v>264</v>
       </c>
       <c r="N7" s="7">
-        <v>520123</v>
+        <v>522947</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>44</v>
@@ -1555,7 +1660,7 @@
         <v>172</v>
       </c>
       <c r="D8" s="7">
-        <v>377679</v>
+        <v>399987</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>47</v>
@@ -1570,7 +1675,7 @@
         <v>207</v>
       </c>
       <c r="I8" s="7">
-        <v>354957</v>
+        <v>313200</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>47</v>
@@ -1585,7 +1690,7 @@
         <v>379</v>
       </c>
       <c r="N8" s="7">
-        <v>732636</v>
+        <v>713187</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1608,7 +1713,7 @@
         <v>4</v>
       </c>
       <c r="D9" s="7">
-        <v>4233</v>
+        <v>3865</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>49</v>
@@ -1617,37 +1722,37 @@
         <v>50</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="H9" s="7">
         <v>7</v>
       </c>
       <c r="I9" s="7">
-        <v>6803</v>
+        <v>5902</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>54</v>
       </c>
       <c r="M9" s="7">
         <v>11</v>
       </c>
       <c r="N9" s="7">
-        <v>11036</v>
+        <v>9767</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1659,46 +1764,46 @@
         <v>13</v>
       </c>
       <c r="D10" s="7">
-        <v>14920</v>
+        <v>13974</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>60</v>
       </c>
       <c r="H10" s="7">
         <v>18</v>
       </c>
       <c r="I10" s="7">
-        <v>22127</v>
+        <v>18913</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>63</v>
       </c>
       <c r="M10" s="7">
         <v>31</v>
       </c>
       <c r="N10" s="7">
-        <v>37047</v>
+        <v>32887</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1710,46 +1815,46 @@
         <v>90</v>
       </c>
       <c r="D11" s="7">
-        <v>122621</v>
+        <v>116202</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>69</v>
       </c>
       <c r="H11" s="7">
         <v>133</v>
       </c>
       <c r="I11" s="7">
-        <v>139716</v>
+        <v>123043</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="M11" s="7">
         <v>223</v>
       </c>
       <c r="N11" s="7">
-        <v>262337</v>
+        <v>239246</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1761,46 +1866,46 @@
         <v>195</v>
       </c>
       <c r="D12" s="7">
-        <v>286622</v>
+        <v>289506</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>78</v>
       </c>
       <c r="H12" s="7">
         <v>301</v>
       </c>
       <c r="I12" s="7">
-        <v>329103</v>
+        <v>362873</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="M12" s="7">
         <v>496</v>
       </c>
       <c r="N12" s="7">
-        <v>615725</v>
+        <v>652379</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1812,7 +1917,7 @@
         <v>302</v>
       </c>
       <c r="D13" s="7">
-        <v>428396</v>
+        <v>423547</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>47</v>
@@ -1827,7 +1932,7 @@
         <v>459</v>
       </c>
       <c r="I13" s="7">
-        <v>497749</v>
+        <v>510732</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>47</v>
@@ -1842,7 +1947,7 @@
         <v>761</v>
       </c>
       <c r="N13" s="7">
-        <v>926145</v>
+        <v>934279</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>47</v>
@@ -1856,7 +1961,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -1865,46 +1970,46 @@
         <v>15</v>
       </c>
       <c r="D14" s="7">
-        <v>17022</v>
+        <v>15909</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>88</v>
       </c>
       <c r="H14" s="7">
         <v>15</v>
       </c>
       <c r="I14" s="7">
-        <v>9357</v>
+        <v>8435</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="M14" s="7">
         <v>30</v>
       </c>
       <c r="N14" s="7">
-        <v>26379</v>
+        <v>24344</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1916,10 +2021,10 @@
         <v>27</v>
       </c>
       <c r="D15" s="7">
-        <v>27246</v>
+        <v>25152</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>15</v>
+        <v>93</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>94</v>
@@ -1931,7 +2036,7 @@
         <v>49</v>
       </c>
       <c r="I15" s="7">
-        <v>33753</v>
+        <v>30457</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>96</v>
@@ -1946,7 +2051,7 @@
         <v>76</v>
       </c>
       <c r="N15" s="7">
-        <v>60999</v>
+        <v>55608</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>99</v>
@@ -1967,7 +2072,7 @@
         <v>148</v>
       </c>
       <c r="D16" s="7">
-        <v>148971</v>
+        <v>136938</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>102</v>
@@ -1982,7 +2087,7 @@
         <v>253</v>
       </c>
       <c r="I16" s="7">
-        <v>174269</v>
+        <v>157820</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>105</v>
@@ -1997,7 +2102,7 @@
         <v>401</v>
       </c>
       <c r="N16" s="7">
-        <v>323239</v>
+        <v>294758</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>108</v>
@@ -2018,46 +2123,46 @@
         <v>354</v>
       </c>
       <c r="D17" s="7">
-        <v>361542</v>
+        <v>355935</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>111</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H17" s="7">
         <v>528</v>
       </c>
       <c r="I17" s="7">
-        <v>365310</v>
+        <v>345017</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="M17" s="7">
         <v>882</v>
       </c>
       <c r="N17" s="7">
-        <v>726852</v>
+        <v>700952</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2069,7 +2174,7 @@
         <v>544</v>
       </c>
       <c r="D18" s="7">
-        <v>554781</v>
+        <v>533933</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>47</v>
@@ -2084,7 +2189,7 @@
         <v>845</v>
       </c>
       <c r="I18" s="7">
-        <v>582689</v>
+        <v>541729</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>47</v>
@@ -2099,7 +2204,7 @@
         <v>1389</v>
       </c>
       <c r="N18" s="7">
-        <v>1137470</v>
+        <v>1075662</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>47</v>
@@ -2113,7 +2218,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2122,46 +2227,46 @@
         <v>15</v>
       </c>
       <c r="D19" s="7">
-        <v>15824</v>
+        <v>14334</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H19" s="7">
         <v>31</v>
       </c>
       <c r="I19" s="7">
-        <v>20568</v>
+        <v>18490</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M19" s="7">
         <v>46</v>
       </c>
       <c r="N19" s="7">
-        <v>36392</v>
+        <v>32824</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2173,46 +2278,46 @@
         <v>28</v>
       </c>
       <c r="D20" s="7">
-        <v>29530</v>
+        <v>27401</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H20" s="7">
         <v>83</v>
       </c>
       <c r="I20" s="7">
-        <v>58088</v>
+        <v>52201</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M20" s="7">
         <v>111</v>
       </c>
       <c r="N20" s="7">
-        <v>87618</v>
+        <v>79602</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>60</v>
+        <v>136</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>135</v>
+        <v>85</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>95</v>
+        <v>137</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2224,46 +2329,46 @@
         <v>200</v>
       </c>
       <c r="D21" s="7">
-        <v>207024</v>
+        <v>191833</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="H21" s="7">
         <v>408</v>
       </c>
       <c r="I21" s="7">
-        <v>272397</v>
+        <v>245901</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="M21" s="7">
         <v>608</v>
       </c>
       <c r="N21" s="7">
-        <v>479422</v>
+        <v>437734</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2275,46 +2380,46 @@
         <v>420</v>
       </c>
       <c r="D22" s="7">
-        <v>469765</v>
+        <v>652447</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="H22" s="7">
         <v>616</v>
       </c>
       <c r="I22" s="7">
-        <v>394256</v>
+        <v>394453</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="M22" s="7">
         <v>1036</v>
       </c>
       <c r="N22" s="7">
-        <v>864021</v>
+        <v>1046899</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2326,7 +2431,7 @@
         <v>663</v>
       </c>
       <c r="D23" s="7">
-        <v>722143</v>
+        <v>886015</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>47</v>
@@ -2341,7 +2446,7 @@
         <v>1138</v>
       </c>
       <c r="I23" s="7">
-        <v>745310</v>
+        <v>711044</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>47</v>
@@ -2356,7 +2461,7 @@
         <v>1801</v>
       </c>
       <c r="N23" s="7">
-        <v>1467453</v>
+        <v>1597058</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>47</v>
@@ -2370,7 +2475,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2379,46 +2484,46 @@
         <v>21</v>
       </c>
       <c r="D24" s="7">
-        <v>17840</v>
+        <v>16102</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="H24" s="7">
         <v>46</v>
       </c>
       <c r="I24" s="7">
-        <v>28688</v>
+        <v>25499</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="M24" s="7">
         <v>67</v>
       </c>
       <c r="N24" s="7">
-        <v>46528</v>
+        <v>41602</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2430,13 +2535,13 @@
         <v>62</v>
       </c>
       <c r="D25" s="7">
-        <v>57972</v>
+        <v>51669</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>166</v>
@@ -2445,7 +2550,7 @@
         <v>92</v>
       </c>
       <c r="I25" s="7">
-        <v>58520</v>
+        <v>52355</v>
       </c>
       <c r="J25" s="7" t="s">
         <v>167</v>
@@ -2454,22 +2559,22 @@
         <v>168</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="M25" s="7">
         <v>154</v>
       </c>
       <c r="N25" s="7">
-        <v>116492</v>
+        <v>104025</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2481,46 +2586,46 @@
         <v>238</v>
       </c>
       <c r="D26" s="7">
-        <v>214387</v>
+        <v>198245</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="H26" s="7">
         <v>378</v>
       </c>
       <c r="I26" s="7">
-        <v>228791</v>
+        <v>207869</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>178</v>
       </c>
       <c r="M26" s="7">
         <v>616</v>
       </c>
       <c r="N26" s="7">
-        <v>443179</v>
+        <v>406114</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2532,46 +2637,46 @@
         <v>340</v>
       </c>
       <c r="D27" s="7">
-        <v>307305</v>
+        <v>292855</v>
       </c>
       <c r="E27" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="F27" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="G27" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>184</v>
       </c>
       <c r="H27" s="7">
         <v>484</v>
       </c>
       <c r="I27" s="7">
-        <v>279677</v>
+        <v>260905</v>
       </c>
       <c r="J27" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="K27" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="K27" s="7" t="s">
+      <c r="L27" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>187</v>
       </c>
       <c r="M27" s="7">
         <v>824</v>
       </c>
       <c r="N27" s="7">
-        <v>586982</v>
+        <v>553761</v>
       </c>
       <c r="O27" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="P27" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="P27" s="7" t="s">
+      <c r="Q27" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2583,7 +2688,7 @@
         <v>661</v>
       </c>
       <c r="D28" s="7">
-        <v>597504</v>
+        <v>558872</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>47</v>
@@ -2598,7 +2703,7 @@
         <v>1000</v>
       </c>
       <c r="I28" s="7">
-        <v>595677</v>
+        <v>546629</v>
       </c>
       <c r="J28" s="7" t="s">
         <v>47</v>
@@ -2613,7 +2718,7 @@
         <v>1661</v>
       </c>
       <c r="N28" s="7">
-        <v>1193181</v>
+        <v>1105502</v>
       </c>
       <c r="O28" s="7" t="s">
         <v>47</v>
@@ -2627,55 +2732,55 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C29" s="7">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D29" s="7">
-        <v>18787</v>
+        <v>8644</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H29" s="7">
+        <v>27</v>
+      </c>
+      <c r="I29" s="7">
+        <v>13950</v>
+      </c>
+      <c r="J29" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="G29" s="7" t="s">
+      <c r="K29" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="H29" s="7">
-        <v>74</v>
-      </c>
-      <c r="I29" s="7">
-        <v>41705</v>
-      </c>
-      <c r="J29" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="L29" s="7" t="s">
         <v>195</v>
       </c>
       <c r="M29" s="7">
-        <v>102</v>
+        <v>41</v>
       </c>
       <c r="N29" s="7">
-        <v>60492</v>
+        <v>22595</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2684,49 +2789,49 @@
         <v>18</v>
       </c>
       <c r="C30" s="7">
-        <v>91</v>
+        <v>38</v>
       </c>
       <c r="D30" s="7">
-        <v>60029</v>
+        <v>22806</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="G30" s="7" t="s">
+      <c r="H30" s="7">
+        <v>93</v>
+      </c>
+      <c r="I30" s="7">
+        <v>45618</v>
+      </c>
+      <c r="J30" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="H30" s="7">
-        <v>224</v>
-      </c>
-      <c r="I30" s="7">
-        <v>122814</v>
-      </c>
-      <c r="J30" s="7" t="s">
+      <c r="K30" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="L30" s="7" t="s">
+      <c r="M30" s="7">
+        <v>131</v>
+      </c>
+      <c r="N30" s="7">
+        <v>68424</v>
+      </c>
+      <c r="O30" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="M30" s="7">
-        <v>315</v>
-      </c>
-      <c r="N30" s="7">
-        <v>182843</v>
-      </c>
-      <c r="O30" s="7" t="s">
+      <c r="P30" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="P30" s="7" t="s">
-        <v>206</v>
-      </c>
       <c r="Q30" s="7" t="s">
-        <v>207</v>
+        <v>167</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2735,49 +2840,49 @@
         <v>27</v>
       </c>
       <c r="C31" s="7">
-        <v>382</v>
+        <v>203</v>
       </c>
       <c r="D31" s="7">
-        <v>261039</v>
+        <v>130558</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="G31" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="H31" s="7">
+        <v>304</v>
+      </c>
+      <c r="I31" s="7">
+        <v>354670</v>
+      </c>
+      <c r="J31" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="G31" s="7" t="s">
+      <c r="K31" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="H31" s="7">
-        <v>691</v>
-      </c>
-      <c r="I31" s="7">
-        <v>488897</v>
-      </c>
-      <c r="J31" s="7" t="s">
+      <c r="L31" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="K31" s="7" t="s">
+      <c r="M31" s="7">
+        <v>507</v>
+      </c>
+      <c r="N31" s="7">
+        <v>485228</v>
+      </c>
+      <c r="O31" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="L31" s="7" t="s">
+      <c r="P31" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="M31" s="7">
-        <v>1073</v>
-      </c>
-      <c r="N31" s="7">
-        <v>749936</v>
-      </c>
-      <c r="O31" s="7" t="s">
+      <c r="Q31" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2786,49 +2891,49 @@
         <v>37</v>
       </c>
       <c r="C32" s="7">
-        <v>524</v>
+        <v>314</v>
       </c>
       <c r="D32" s="7">
-        <v>355517</v>
+        <v>205348</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="H32" s="7">
+        <v>401</v>
+      </c>
+      <c r="I32" s="7">
+        <v>192970</v>
+      </c>
+      <c r="J32" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="G32" s="7" t="s">
+      <c r="K32" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="H32" s="7">
-        <v>708</v>
-      </c>
-      <c r="I32" s="7">
-        <v>366833</v>
-      </c>
-      <c r="J32" s="7" t="s">
+      <c r="L32" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="K32" s="7" t="s">
+      <c r="M32" s="7">
+        <v>715</v>
+      </c>
+      <c r="N32" s="7">
+        <v>398317</v>
+      </c>
+      <c r="O32" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="L32" s="7" t="s">
+      <c r="P32" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="M32" s="7">
-        <v>1232</v>
-      </c>
-      <c r="N32" s="7">
-        <v>722350</v>
-      </c>
-      <c r="O32" s="7" t="s">
+      <c r="Q32" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2837,10 +2942,10 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
-        <v>1025</v>
+        <v>569</v>
       </c>
       <c r="D33" s="7">
-        <v>695372</v>
+        <v>367356</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>47</v>
@@ -2852,10 +2957,10 @@
         <v>47</v>
       </c>
       <c r="H33" s="7">
-        <v>1697</v>
+        <v>825</v>
       </c>
       <c r="I33" s="7">
-        <v>1020248</v>
+        <v>607209</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>47</v>
@@ -2867,10 +2972,10 @@
         <v>47</v>
       </c>
       <c r="M33" s="7">
-        <v>2722</v>
+        <v>1394</v>
       </c>
       <c r="N33" s="7">
-        <v>1715620</v>
+        <v>974564</v>
       </c>
       <c r="O33" s="7" t="s">
         <v>47</v>
@@ -2884,31 +2989,31 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>3</v>
+        <v>224</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C34" s="7">
-        <v>84</v>
+        <v>14</v>
       </c>
       <c r="D34" s="7">
-        <v>75259</v>
+        <v>8578</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="F34" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>87</v>
       </c>
       <c r="G34" s="7" t="s">
         <v>227</v>
       </c>
       <c r="H34" s="7">
-        <v>174</v>
+        <v>47</v>
       </c>
       <c r="I34" s="7">
-        <v>110739</v>
+        <v>23112</v>
       </c>
       <c r="J34" s="7" t="s">
         <v>228</v>
@@ -2920,19 +3025,19 @@
         <v>230</v>
       </c>
       <c r="M34" s="7">
-        <v>258</v>
+        <v>61</v>
       </c>
       <c r="N34" s="7">
-        <v>185998</v>
+        <v>31690</v>
       </c>
       <c r="O34" s="7" t="s">
         <v>231</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2941,49 +3046,49 @@
         <v>18</v>
       </c>
       <c r="C35" s="7">
-        <v>223</v>
+        <v>53</v>
       </c>
       <c r="D35" s="7">
-        <v>194831</v>
+        <v>31524</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="H35" s="7">
-        <v>476</v>
+        <v>131</v>
       </c>
       <c r="I35" s="7">
-        <v>315068</v>
+        <v>62902</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="M35" s="7">
-        <v>699</v>
+        <v>184</v>
       </c>
       <c r="N35" s="7">
-        <v>509899</v>
+        <v>94426</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -2992,49 +3097,49 @@
         <v>27</v>
       </c>
       <c r="C36" s="7">
-        <v>1088</v>
+        <v>179</v>
       </c>
       <c r="D36" s="7">
-        <v>1018225</v>
+        <v>107521</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H36" s="7">
-        <v>1934</v>
+        <v>387</v>
       </c>
       <c r="I36" s="7">
-        <v>1422328</v>
+        <v>187515</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="M36" s="7">
-        <v>3022</v>
+        <v>566</v>
       </c>
       <c r="N36" s="7">
-        <v>2440554</v>
+        <v>295035</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3043,49 +3148,49 @@
         <v>37</v>
       </c>
       <c r="C37" s="7">
-        <v>1972</v>
+        <v>210</v>
       </c>
       <c r="D37" s="7">
-        <v>2087559</v>
+        <v>133726</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H37" s="7">
-        <v>2762</v>
+        <v>307</v>
       </c>
       <c r="I37" s="7">
-        <v>1948495</v>
+        <v>147786</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="M37" s="7">
-        <v>4734</v>
+        <v>517</v>
       </c>
       <c r="N37" s="7">
-        <v>4036054</v>
+        <v>281512</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3094,63 +3199,321 @@
         <v>3</v>
       </c>
       <c r="C38" s="7">
+        <v>456</v>
+      </c>
+      <c r="D38" s="7">
+        <v>281349</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H38" s="7">
+        <v>872</v>
+      </c>
+      <c r="I38" s="7">
+        <v>421315</v>
+      </c>
+      <c r="J38" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="L38" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="M38" s="7">
+        <v>1328</v>
+      </c>
+      <c r="N38" s="7">
+        <v>702663</v>
+      </c>
+      <c r="O38" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="P38" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q38" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" s="7">
+        <v>84</v>
+      </c>
+      <c r="D39" s="7">
+        <v>68786</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="H39" s="7">
+        <v>174</v>
+      </c>
+      <c r="I39" s="7">
+        <v>98610</v>
+      </c>
+      <c r="J39" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="K39" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="L39" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="M39" s="7">
+        <v>258</v>
+      </c>
+      <c r="N39" s="7">
+        <v>167395</v>
+      </c>
+      <c r="O39" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="P39" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="Q39" s="7" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A40" s="1"/>
+      <c r="B40" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C40" s="7">
+        <v>223</v>
+      </c>
+      <c r="D40" s="7">
+        <v>177339</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="H40" s="7">
+        <v>476</v>
+      </c>
+      <c r="I40" s="7">
+        <v>278726</v>
+      </c>
+      <c r="J40" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="K40" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="L40" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="M40" s="7">
+        <v>699</v>
+      </c>
+      <c r="N40" s="7">
+        <v>456065</v>
+      </c>
+      <c r="O40" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="P40" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q40" s="7" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A41" s="1"/>
+      <c r="B41" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C41" s="7">
+        <v>1088</v>
+      </c>
+      <c r="D41" s="7">
+        <v>943101</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="H41" s="7">
+        <v>1934</v>
+      </c>
+      <c r="I41" s="7">
+        <v>1379587</v>
+      </c>
+      <c r="J41" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="K41" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="L41" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="M41" s="7">
+        <v>3022</v>
+      </c>
+      <c r="N41" s="7">
+        <v>2322688</v>
+      </c>
+      <c r="O41" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="P41" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q41" s="7" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A42" s="1"/>
+      <c r="B42" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C42" s="7">
+        <v>1972</v>
+      </c>
+      <c r="D42" s="7">
+        <v>2261832</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="H42" s="7">
+        <v>2762</v>
+      </c>
+      <c r="I42" s="7">
+        <v>1894936</v>
+      </c>
+      <c r="J42" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="K42" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="L42" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="M42" s="7">
+        <v>4734</v>
+      </c>
+      <c r="N42" s="7">
+        <v>4156768</v>
+      </c>
+      <c r="O42" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="P42" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="Q42" s="7" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A43" s="1"/>
+      <c r="B43" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43" s="7">
         <v>3367</v>
       </c>
-      <c r="D38" s="7">
-        <v>3375875</v>
-      </c>
-      <c r="E38" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="H38" s="7">
+      <c r="D43" s="7">
+        <v>3451058</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H43" s="7">
         <v>5346</v>
       </c>
-      <c r="I38" s="7">
-        <v>3796630</v>
-      </c>
-      <c r="J38" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="M38" s="7">
+      <c r="I43" s="7">
+        <v>3651858</v>
+      </c>
+      <c r="J43" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="K43" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="L43" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="M43" s="7">
         <v>8713</v>
       </c>
-      <c r="N38" s="7">
-        <v>7172505</v>
-      </c>
-      <c r="O38" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>260</v>
+      <c r="N43" s="7">
+        <v>7102916</v>
+      </c>
+      <c r="O43" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="P43" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q43" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>295</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A14:A18"/>
     <mergeCell ref="A19:A23"/>
     <mergeCell ref="A24:A28"/>
     <mergeCell ref="A29:A33"/>
     <mergeCell ref="A34:A38"/>
+    <mergeCell ref="A39:A43"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
